--- a/Taxonomies/MostlyImpactData/EMDAT_HIP_new.xlsx
+++ b/Taxonomies/MostlyImpactData/EMDAT_HIP_new.xlsx
@@ -166,10 +166,10 @@
     <t xml:space="preserve">hazgeoseis</t>
   </si>
   <si>
-    <t xml:space="preserve">GH0001,GH0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH0003,GH0004,GH0005,GH0006,GH0007</t>
+    <t xml:space="preserve">GH0001:GH0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH0003:GH0004:GH0005:GH0006:GH0007</t>
   </si>
   <si>
     <t xml:space="preserve">Tsunami</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">TS</t>
   </si>
   <si>
-    <t xml:space="preserve">hazgeoother,hazhmmarine,hazhmflood</t>
+    <t xml:space="preserve">hazgeoother:hazhmmarine:hazhmflood</t>
   </si>
   <si>
     <t xml:space="preserve">GH0006</t>
@@ -205,10 +205,10 @@
     <t xml:space="preserve">LS</t>
   </si>
   <si>
-    <t xml:space="preserve">hazgeoseis,hazenvenvdeg,hazgeovolc,hazgeoother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH0007,GH0005</t>
+    <t xml:space="preserve">hazgeoseis:hazenvenvdeg:hazgeovolc:hazgeoother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH0007:GH0005</t>
   </si>
   <si>
     <t xml:space="preserve">Rockfall (dry)</t>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">Volcanic activity (General)</t>
   </si>
   <si>
-    <t xml:space="preserve">GH0012,GH0013,GH0009,GH0010</t>
+    <t xml:space="preserve">GH0012:GH0013:GH0009:GH0010</t>
   </si>
   <si>
     <t xml:space="preserve">Lava flow</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">Flood (General)</t>
   </si>
   <si>
-    <t xml:space="preserve">MH0004,MH0005,MH0006,MH0007,MH0008,MH0012</t>
+    <t xml:space="preserve">MH0004:MH0005:MH0006:MH0007:MH0008:MH0012</t>
   </si>
   <si>
     <t xml:space="preserve">Coastal flood</t>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">hazhmterr</t>
   </si>
   <si>
-    <t xml:space="preserve">MH0051,MH0052</t>
+    <t xml:space="preserve">MH0051:MH0052</t>
   </si>
   <si>
     <t xml:space="preserve">Avalanche (wet)</t>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">ET</t>
   </si>
   <si>
-    <t xml:space="preserve">MH0037,MH0038,MH0039,MH0042,MH0043</t>
+    <t xml:space="preserve">MH0037:MH0038:MH0039:MH0042:MH0043</t>
   </si>
   <si>
     <t xml:space="preserve">Storm</t>
@@ -355,7 +355,7 @@
     <t xml:space="preserve">ST</t>
   </si>
   <si>
-    <t xml:space="preserve">MH0037,MH0038,MH0039</t>
+    <t xml:space="preserve">MH0037:MH0038:MH0039</t>
   </si>
   <si>
     <t xml:space="preserve">Tropical cyclone</t>
@@ -382,13 +382,13 @@
     <t xml:space="preserve">hazhmconv</t>
   </si>
   <si>
-    <t xml:space="preserve">MH0002,MH0003</t>
+    <t xml:space="preserve">MH0002:MH0003</t>
   </si>
   <si>
     <t xml:space="preserve">Severe weather</t>
   </si>
   <si>
-    <t xml:space="preserve">MH0001,MH0002,MH0003,</t>
+    <t xml:space="preserve">MH0001:MH0002:MH0003:</t>
   </si>
   <si>
     <t xml:space="preserve">Tornado</t>
@@ -400,10 +400,10 @@
     <t xml:space="preserve">Storm (General)</t>
   </si>
   <si>
-    <t xml:space="preserve">hazhmwind,hazhmprecip,hazhmconv,hazhmmarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MH0059,MH0001,MH0002,MH0003,MH0027,MH0054,MH0060</t>
+    <t xml:space="preserve">hazhmwind:hazhmprecip:hazhmconv:hazhmmarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH0059:MH0001:MH0002:MH0003:MH0027:MH0054:MH0060</t>
   </si>
   <si>
     <t xml:space="preserve">Hail</t>
@@ -603,7 +603,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="I2" activeCellId="9" sqref="F15 F17:G17 F40:G40 G14:H14 G20 G25 G27 G33:G34 G37:G38 I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
